--- a/NformTester/NformTester/Keywordscripts/600.30.20.100_VerifyDefaultSettingsOfTheFloorPlanOfTheCustomView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.100_VerifyDefaultSettingsOfTheFloorPlanOfTheCustomView.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="30" windowWidth="8355" windowHeight="7800"/>
@@ -1196,7 +1196,7 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3727,10 +3727,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3775,6 +3771,10 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4030,7 +4030,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 3" xfId="3"/>
@@ -4478,7 +4478,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4764,8 +4764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4777,7 +4777,7 @@
     <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1">
@@ -4963,19 +4963,19 @@
         <v>823</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J6" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="K6" s="20" t="s">
         <v>824</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="L6" s="20" t="s">
         <v>825</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="M6" s="20" t="s">
         <v>826</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>827</v>
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="11"/>
@@ -5037,7 +5037,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>812</v>
@@ -5225,7 +5225,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -5732,10 +5732,10 @@
         <v>7</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J34" s="27" t="b">
         <v>1</v>
@@ -5765,7 +5765,7 @@
         <v>805</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J35" s="25" t="b">
         <v>1</v>
@@ -5780,7 +5780,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>631</v>
@@ -5816,10 +5816,10 @@
         <v>7</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J37" s="28" t="b">
         <v>1</v>
@@ -6032,7 +6032,7 @@
         <v>56</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -6082,7 +6082,7 @@
         <v>13</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
@@ -6250,7 +6250,7 @@
         <v>56</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
@@ -6312,7 +6312,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>572</v>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="20"/>
